--- a/regions_in_groupSIFT.xlsx
+++ b/regions_in_groupSIFT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
   <si>
     <t>Precentral_L</t>
   </si>
@@ -254,7 +254,10 @@
     <t>LowerBasal_R</t>
   </si>
   <si>
-    <t>Regions</t>
+    <t>Language_regions</t>
+  </si>
+  <si>
+    <t>All regions</t>
   </si>
 </sst>
 </file>
@@ -278,12 +281,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -298,10 +307,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,397 +595,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A77"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>75</v>
       </c>
     </row>

--- a/regions_in_groupSIFT.xlsx
+++ b/regions_in_groupSIFT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\EEG_BCI\2. Word decoding\1. Temporal dynamic decoding\code\python\semantic_processing\graph_visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C8FB5E-27EC-4188-A9AF-E2A7FDFD653C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="1" r:id="rId1"/>
@@ -257,13 +258,13 @@
     <t>Language_regions</t>
   </si>
   <si>
-    <t>All regions</t>
+    <t>All_regions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,8 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -594,536 +594,536 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>39</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>57</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>47</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>71</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>75</v>
       </c>
     </row>

--- a/regions_in_groupSIFT.xlsx
+++ b/regions_in_groupSIFT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\EEG_BCI\2. Word decoding\1. Temporal dynamic decoding\code\python\semantic_processing\graph_visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C8FB5E-27EC-4188-A9AF-E2A7FDFD653C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C133DE7E-023B-44AC-A0DF-269E7FEC8926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="155">
   <si>
     <t>Precentral_L</t>
   </si>
@@ -259,6 +259,237 @@
   </si>
   <si>
     <t>All_regions</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>PrC_L</t>
+  </si>
+  <si>
+    <t>PrC_R</t>
+  </si>
+  <si>
+    <t>SFG_L</t>
+  </si>
+  <si>
+    <t>SFG_R</t>
+  </si>
+  <si>
+    <t>MFG_L</t>
+  </si>
+  <si>
+    <t>MFG_R</t>
+  </si>
+  <si>
+    <t>IFGOp_L</t>
+  </si>
+  <si>
+    <t>IFGOp_R</t>
+  </si>
+  <si>
+    <t>IFTri_L</t>
+  </si>
+  <si>
+    <t>IFTri_R</t>
+  </si>
+  <si>
+    <t>IFOrb_L</t>
+  </si>
+  <si>
+    <t>IFOrb_R</t>
+  </si>
+  <si>
+    <t>SFOrb_L</t>
+  </si>
+  <si>
+    <t>SFOrb_R</t>
+  </si>
+  <si>
+    <t>MFOrb_L</t>
+  </si>
+  <si>
+    <t>MFOrb_R</t>
+  </si>
+  <si>
+    <t>RO_L</t>
+  </si>
+  <si>
+    <t>RO_R</t>
+  </si>
+  <si>
+    <t>SMA_L</t>
+  </si>
+  <si>
+    <t>SMA_R</t>
+  </si>
+  <si>
+    <t>SFMed_R</t>
+  </si>
+  <si>
+    <t>SFMed_L</t>
+  </si>
+  <si>
+    <t>FMedOrb_R</t>
+  </si>
+  <si>
+    <t>FMedOrb_L</t>
+  </si>
+  <si>
+    <t>Rec_L</t>
+  </si>
+  <si>
+    <t>Rec_R</t>
+  </si>
+  <si>
+    <t>In_L</t>
+  </si>
+  <si>
+    <t>In_R</t>
+  </si>
+  <si>
+    <t>ACin_L</t>
+  </si>
+  <si>
+    <t>ACin_R</t>
+  </si>
+  <si>
+    <t>MCin_L</t>
+  </si>
+  <si>
+    <t>MCin_R</t>
+  </si>
+  <si>
+    <t>PCin_L</t>
+  </si>
+  <si>
+    <t>PCin_R</t>
+  </si>
+  <si>
+    <t>C_L</t>
+  </si>
+  <si>
+    <t>C_R</t>
+  </si>
+  <si>
+    <t>Q_L</t>
+  </si>
+  <si>
+    <t>Q_R</t>
+  </si>
+  <si>
+    <t>Ling_R</t>
+  </si>
+  <si>
+    <t>Ling_L</t>
+  </si>
+  <si>
+    <t>SOG_L</t>
+  </si>
+  <si>
+    <t>SOG_R</t>
+  </si>
+  <si>
+    <t>MOG_L</t>
+  </si>
+  <si>
+    <t>MOG_R</t>
+  </si>
+  <si>
+    <t>IOG_L</t>
+  </si>
+  <si>
+    <t>IOG_R</t>
+  </si>
+  <si>
+    <t>Fusi_L</t>
+  </si>
+  <si>
+    <t>Fusi_R</t>
+  </si>
+  <si>
+    <t>PoC_L</t>
+  </si>
+  <si>
+    <t>PoC_R</t>
+  </si>
+  <si>
+    <t>SPG_L</t>
+  </si>
+  <si>
+    <t>SPG_R</t>
+  </si>
+  <si>
+    <t>IPG_L</t>
+  </si>
+  <si>
+    <t>IPG_R</t>
+  </si>
+  <si>
+    <t>SMG_L</t>
+  </si>
+  <si>
+    <t>SMG_R</t>
+  </si>
+  <si>
+    <t>AG_L</t>
+  </si>
+  <si>
+    <t>AG_R</t>
+  </si>
+  <si>
+    <t>PQ_L</t>
+  </si>
+  <si>
+    <t>PQ_R</t>
+  </si>
+  <si>
+    <t>PCL_L</t>
+  </si>
+  <si>
+    <t>PCL_R</t>
+  </si>
+  <si>
+    <t>STG_L</t>
+  </si>
+  <si>
+    <t>STG_R</t>
+  </si>
+  <si>
+    <t>STP_L</t>
+  </si>
+  <si>
+    <t>STP_R</t>
+  </si>
+  <si>
+    <t>MTG_L</t>
+  </si>
+  <si>
+    <t>MTG_R</t>
+  </si>
+  <si>
+    <t>MTP_L</t>
+  </si>
+  <si>
+    <t>MTP_R</t>
+  </si>
+  <si>
+    <t>ITG_L</t>
+  </si>
+  <si>
+    <t>ITG_R</t>
+  </si>
+  <si>
+    <t>UB_L</t>
+  </si>
+  <si>
+    <t>UB_R</t>
+  </si>
+  <si>
+    <t>LB_L</t>
+  </si>
+  <si>
+    <t>LB_R</t>
   </si>
 </sst>
 </file>
@@ -595,539 +826,772 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>62</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>66</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>70</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>38</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>44</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>42</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>40</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>37</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>41</v>
       </c>
       <c r="B60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>43</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>45</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>51</v>
       </c>
       <c r="B65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>53</v>
       </c>
       <c r="B66" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>39</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>57</v>
       </c>
       <c r="B71" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>55</v>
       </c>
       <c r="B72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>47</v>
       </c>
       <c r="B74" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1</v>
       </c>
       <c r="B76" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>71</v>
       </c>
       <c r="B77" t="s">
         <v>75</v>
       </c>
+      <c r="C77" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>